--- a/Data_preparation/datasets/final_data/Yiren_Digital_Ltd.xlsx
+++ b/Data_preparation/datasets/final_data/Yiren_Digital_Ltd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>42185</v>
       </c>
       <c r="D2">
-        <v>19705.44771228903</v>
+        <v>8.91390722595512</v>
       </c>
       <c r="E2">
-        <v>18415.580078125</v>
+        <v>8.423642158508301</v>
       </c>
       <c r="F2">
-        <v>20373.69239022943</v>
+        <v>9.261549913802089</v>
       </c>
       <c r="G2">
-        <v>18260.1743390691</v>
+        <v>7.4431128737111</v>
       </c>
       <c r="H2">
-        <v>5876745450</v>
+        <v>86406484</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-51554945.05494506</v>
@@ -783,22 +720,22 @@
         <v>42369</v>
       </c>
       <c r="D3">
-        <v>27.125</v>
+        <v>8.272106026459451</v>
       </c>
       <c r="E3">
-        <v>25.34499931335449</v>
+        <v>6.079285144805908</v>
       </c>
       <c r="F3">
-        <v>27.125</v>
+        <v>8.459298120327766</v>
       </c>
       <c r="G3">
-        <v>22.22999954223633</v>
+        <v>5.651417562399507</v>
       </c>
       <c r="H3">
-        <v>134598631</v>
+        <v>86406484</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>-204912186.1038361</v>
@@ -824,22 +761,22 @@
         <v>42460</v>
       </c>
       <c r="D4">
-        <v>11.19978539931328</v>
+        <v>10.09054264223088</v>
       </c>
       <c r="E4">
-        <v>11.3136043548584</v>
+        <v>10.9997615814209</v>
       </c>
       <c r="F4">
-        <v>11.83261851426581</v>
+        <v>13.25497985691706</v>
       </c>
       <c r="G4">
-        <v>10.98580520713185</v>
+        <v>8.985218357412636</v>
       </c>
       <c r="H4">
-        <v>1299391231</v>
+        <v>86406484</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-272175351.7859904</v>
@@ -892,22 +829,22 @@
         <v>42551</v>
       </c>
       <c r="D5">
-        <v>17.48999977111816</v>
+        <v>12.23879391921309</v>
       </c>
       <c r="E5">
-        <v>18.72999954223633</v>
+        <v>22.85525703430176</v>
       </c>
       <c r="F5">
-        <v>18.8700008392334</v>
+        <v>23.17615823078978</v>
       </c>
       <c r="G5">
-        <v>16.79999923706055</v>
+        <v>12.23879391921309</v>
       </c>
       <c r="H5">
-        <v>168262866</v>
+        <v>86406484</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>830610485</v>
@@ -975,22 +912,22 @@
         <v>42643</v>
       </c>
       <c r="D6">
-        <v>8.69158867261447</v>
+        <v>21.17944484197945</v>
       </c>
       <c r="E6">
-        <v>9.01453971862793</v>
+        <v>25.85033226013184</v>
       </c>
       <c r="F6">
-        <v>9.435779708844802</v>
+        <v>28.52450456290409</v>
       </c>
       <c r="G6">
-        <v>8.331194091753382</v>
+        <v>20.88528595668222</v>
       </c>
       <c r="H6">
-        <v>219937482</v>
+        <v>86406484</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1415025632</v>
@@ -1070,22 +1007,22 @@
         <v>42735</v>
       </c>
       <c r="D7">
-        <v>534.967198865167</v>
+        <v>19.30752260255097</v>
       </c>
       <c r="E7">
-        <v>450.4078674316406</v>
+        <v>18.83508491516113</v>
       </c>
       <c r="F7">
-        <v>571.2069123366783</v>
+        <v>20.67135099809254</v>
       </c>
       <c r="G7">
-        <v>445.230765507139</v>
+        <v>17.69410589685035</v>
       </c>
       <c r="H7">
-        <v>1333460157</v>
+        <v>86406484</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1238147428</v>
@@ -1159,22 +1096,22 @@
         <v>42825</v>
       </c>
       <c r="D8">
-        <v>9.769573715804048</v>
+        <v>22.46304836654575</v>
       </c>
       <c r="E8">
-        <v>9.667807579040527</v>
+        <v>22.24911308288575</v>
       </c>
       <c r="F8">
-        <v>9.973106636344406</v>
+        <v>23.31878270041382</v>
       </c>
       <c r="G8">
-        <v>9.396430782995594</v>
+        <v>20.66243858045711</v>
       </c>
       <c r="H8">
-        <v>3006208000</v>
+        <v>86406484</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1499281804</v>
@@ -1263,22 +1200,22 @@
         <v>42916</v>
       </c>
       <c r="D9">
-        <v>804.4902529480636</v>
+        <v>22.24911101845287</v>
       </c>
       <c r="E9">
-        <v>793.3997192382812</v>
+        <v>34.10460662841797</v>
       </c>
       <c r="F9">
-        <v>875.2990450951361</v>
+        <v>34.30962948141222</v>
       </c>
       <c r="G9">
-        <v>749.0375843991515</v>
+        <v>22.07974800987682</v>
       </c>
       <c r="H9">
-        <v>275900103</v>
+        <v>86406484</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1493903750</v>
@@ -1367,22 +1304,22 @@
         <v>43008</v>
       </c>
       <c r="D10">
-        <v>16.30785379979687</v>
+        <v>39.2914544267158</v>
       </c>
       <c r="E10">
-        <v>16.63021850585938</v>
+        <v>40.02009963989258</v>
       </c>
       <c r="F10">
-        <v>17.91335631168335</v>
+        <v>49.34490345360663</v>
       </c>
       <c r="G10">
-        <v>16.30785379979687</v>
+        <v>37.1700854492182</v>
       </c>
       <c r="H10">
-        <v>118401578</v>
+        <v>86406484</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2506172931</v>
@@ -1471,22 +1408,22 @@
         <v>43100</v>
       </c>
       <c r="D11">
-        <v>21.06097328157131</v>
+        <v>40.39826182526441</v>
       </c>
       <c r="E11">
-        <v>21.5913028717041</v>
+        <v>37.28076934814453</v>
       </c>
       <c r="F11">
-        <v>23.51893322585045</v>
+        <v>44.20750537308548</v>
       </c>
       <c r="G11">
-        <v>20.76122322733137</v>
+        <v>34.46764903097857</v>
       </c>
       <c r="H11">
-        <v>1299391231</v>
+        <v>86406484</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2627477916</v>
@@ -1563,22 +1500,22 @@
         <v>43190</v>
       </c>
       <c r="D12">
-        <v>15.95295863791121</v>
+        <v>36.89338499920883</v>
       </c>
       <c r="E12">
-        <v>14.81924629211426</v>
+        <v>32.53074264526367</v>
       </c>
       <c r="F12">
-        <v>16.27687689615273</v>
+        <v>37.4652314815369</v>
       </c>
       <c r="G12">
-        <v>13.44259525263616</v>
+        <v>31.82976635995937</v>
       </c>
       <c r="H12">
-        <v>4500000193</v>
+        <v>86406484</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2440822974</v>
@@ -1667,22 +1604,22 @@
         <v>43281</v>
       </c>
       <c r="D13">
-        <v>32.36709687656226</v>
+        <v>19.13965088347417</v>
       </c>
       <c r="E13">
-        <v>31.62302398681641</v>
+        <v>16.68561172485352</v>
       </c>
       <c r="F13">
-        <v>33.33438902755955</v>
+        <v>20.91511130096047</v>
       </c>
       <c r="G13">
-        <v>30.02327147189045</v>
+        <v>14.90085548958505</v>
       </c>
       <c r="H13">
-        <v>1853869000</v>
+        <v>86406484</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1287453729</v>
@@ -1771,22 +1708,22 @@
         <v>43373</v>
       </c>
       <c r="D14">
-        <v>118.8699784743474</v>
+        <v>17.34559972940203</v>
       </c>
       <c r="E14">
-        <v>131.6345367431641</v>
+        <v>14.46396255493164</v>
       </c>
       <c r="F14">
-        <v>137.6179242105138</v>
+        <v>17.71277657234554</v>
       </c>
       <c r="G14">
-        <v>98.52645983921131</v>
+        <v>12.78145756857307</v>
       </c>
       <c r="H14">
-        <v>193969420</v>
+        <v>86406484</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1116359501</v>
@@ -1863,22 +1800,22 @@
         <v>43465</v>
       </c>
       <c r="D15">
-        <v>178.7038649689565</v>
+        <v>9.69531742521097</v>
       </c>
       <c r="E15">
-        <v>142.8035278320312</v>
+        <v>10.38319206237793</v>
       </c>
       <c r="F15">
-        <v>181.4961066283612</v>
+        <v>11.39641326694719</v>
       </c>
       <c r="G15">
-        <v>142.8035278320312</v>
+        <v>9.504757571489016</v>
       </c>
       <c r="H15">
-        <v>193969420</v>
+        <v>86406484</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>652220904</v>
@@ -1955,22 +1892,22 @@
         <v>43555</v>
       </c>
       <c r="D16">
-        <v>1096.205709613841</v>
+        <v>12.93948301086654</v>
       </c>
       <c r="E16">
-        <v>1205.027587890625</v>
+        <v>14.72423934936523</v>
       </c>
       <c r="F16">
-        <v>1294.880514908153</v>
+        <v>15.44929722134772</v>
       </c>
       <c r="G16">
-        <v>1035.305392413072</v>
+        <v>12.10287886503816</v>
       </c>
       <c r="H16">
-        <v>104878138</v>
+        <v>86406484</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>834813549</v>
@@ -2062,22 +1999,22 @@
         <v>43646</v>
       </c>
       <c r="D17">
-        <v>40544.09822043826</v>
+        <v>13.22764603742721</v>
       </c>
       <c r="E17">
-        <v>38831.5703125</v>
+        <v>10.40178203582764</v>
       </c>
       <c r="F17">
-        <v>40715.35101123209</v>
+        <v>13.67290562047559</v>
       </c>
       <c r="G17">
-        <v>37975.30635853087</v>
+        <v>9.974184152654766</v>
       </c>
       <c r="H17">
-        <v>5876745450</v>
+        <v>86406484</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>847126433</v>
@@ -2169,22 +2106,22 @@
         <v>43738</v>
       </c>
       <c r="D18">
-        <v>60.76406463044493</v>
+        <v>6.525514949835163</v>
       </c>
       <c r="E18">
-        <v>59.60836791992188</v>
+        <v>6.014256477355957</v>
       </c>
       <c r="F18">
-        <v>61.14327406172586</v>
+        <v>6.971704025176414</v>
       </c>
       <c r="G18">
-        <v>56.1412984537168</v>
+        <v>5.614545606148818</v>
       </c>
       <c r="H18">
-        <v>229140423</v>
+        <v>86406484</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>432182235</v>
@@ -2264,22 +2201,22 @@
         <v>43830</v>
       </c>
       <c r="D19">
-        <v>222.8461507933775</v>
+        <v>5.363564246385358</v>
       </c>
       <c r="E19">
-        <v>219.044937133789</v>
+        <v>4.257387161254883</v>
       </c>
       <c r="F19">
-        <v>252.7807083626373</v>
+        <v>6.860156825473529</v>
       </c>
       <c r="G19">
-        <v>203.3649307879864</v>
+        <v>4.229500593543048</v>
       </c>
       <c r="H19">
-        <v>80995217</v>
+        <v>86406484</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>341682537</v>
@@ -2371,22 +2308,22 @@
         <v>43921</v>
       </c>
       <c r="D20">
-        <v>12.41129859768217</v>
+        <v>3.718242358941158</v>
       </c>
       <c r="E20">
-        <v>16.23237037658691</v>
+        <v>3.671764373779297</v>
       </c>
       <c r="F20">
-        <v>17.16704825563687</v>
+        <v>4.043588476698703</v>
       </c>
       <c r="G20">
-        <v>12.05887897968325</v>
+        <v>3.05825430476918</v>
       </c>
       <c r="H20">
-        <v>1299391231</v>
+        <v>86406484</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>372126139</v>
@@ -2478,22 +2415,22 @@
         <v>44012</v>
       </c>
       <c r="D21">
-        <v>970.3393129824782</v>
+        <v>3.774015674865765</v>
       </c>
       <c r="E21">
-        <v>1088.628295898438</v>
+        <v>3.337122201919556</v>
       </c>
       <c r="F21">
-        <v>1118.200541627427</v>
+        <v>4.164431165929292</v>
       </c>
       <c r="G21">
-        <v>950.0083940437976</v>
+        <v>3.253461834530728</v>
       </c>
       <c r="H21">
-        <v>1333460157</v>
+        <v>86406484</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>383262084</v>
@@ -2573,22 +2510,22 @@
         <v>44104</v>
       </c>
       <c r="D22">
-        <v>12.7733873356874</v>
+        <v>2.74220351393124</v>
       </c>
       <c r="E22">
-        <v>15.52035236358643</v>
+        <v>3.05825400352478</v>
       </c>
       <c r="F22">
-        <v>17.30587870681586</v>
+        <v>3.950632117229474</v>
       </c>
       <c r="G22">
-        <v>12.68182262753309</v>
+        <v>2.710598309834741</v>
       </c>
       <c r="H22">
-        <v>4500000193</v>
+        <v>86406484</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>272830636</v>
@@ -2680,22 +2617,22 @@
         <v>44196</v>
       </c>
       <c r="D23">
-        <v>32.50755730601569</v>
+        <v>3.151210330881089</v>
       </c>
       <c r="E23">
-        <v>31.25653076171875</v>
+        <v>3.21627950668335</v>
       </c>
       <c r="F23">
-        <v>32.99459606093095</v>
+        <v>3.606695004745919</v>
       </c>
       <c r="G23">
-        <v>30.77904021483708</v>
+        <v>2.82586400862078</v>
       </c>
       <c r="H23">
-        <v>219937482</v>
+        <v>86406484</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>309950450</v>
@@ -2775,22 +2712,22 @@
         <v>44286</v>
       </c>
       <c r="D24">
-        <v>2516.34996159507</v>
+        <v>4.387525650473951</v>
       </c>
       <c r="E24">
-        <v>2790.17041015625</v>
+        <v>3.578808069229126</v>
       </c>
       <c r="F24">
-        <v>2807.159270103477</v>
+        <v>4.60132459711616</v>
       </c>
       <c r="G24">
-        <v>2503.838146397838</v>
+        <v>3.290644348667718</v>
       </c>
       <c r="H24">
-        <v>913159452</v>
+        <v>86406484</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>470493648</v>
@@ -2882,22 +2819,22 @@
         <v>44377</v>
       </c>
       <c r="D25">
-        <v>40.06459571156605</v>
+        <v>5.484407166886446</v>
       </c>
       <c r="E25">
-        <v>40.04537963867188</v>
+        <v>3.774015665054321</v>
       </c>
       <c r="F25">
-        <v>40.5353766696543</v>
+        <v>5.586658948387019</v>
       </c>
       <c r="G25">
-        <v>36.25990124070713</v>
+        <v>3.662468508825878</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>86406484</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>504736959</v>
@@ -2977,22 +2914,22 @@
         <v>44469</v>
       </c>
       <c r="D26">
-        <v>51.72000122070312</v>
+        <v>2.751499186378496</v>
       </c>
       <c r="E26">
-        <v>45.22999954223633</v>
+        <v>2.918820142745972</v>
       </c>
       <c r="F26">
-        <v>53.2400016784668</v>
+        <v>4.155135347067074</v>
       </c>
       <c r="G26">
-        <v>43.54000091552734</v>
+        <v>2.695725608130837</v>
       </c>
       <c r="H26">
-        <v>134598631</v>
+        <v>86406484</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>252801567</v>
@@ -3084,22 +3021,22 @@
         <v>44561</v>
       </c>
       <c r="D27">
-        <v>98.06110899770088</v>
+        <v>2.649247589288955</v>
       </c>
       <c r="E27">
-        <v>84.43734741210938</v>
+        <v>2.286719083786011</v>
       </c>
       <c r="F27">
-        <v>98.06110899770088</v>
+        <v>2.9281159432137</v>
       </c>
       <c r="G27">
-        <v>80.56356001156674</v>
+        <v>2.093370532742806</v>
       </c>
       <c r="H27">
-        <v>229140423</v>
+        <v>86406484</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>243376765</v>
@@ -3179,22 +3116,22 @@
         <v>44651</v>
       </c>
       <c r="D28">
-        <v>564.8420934999623</v>
+        <v>2.416857384603992</v>
       </c>
       <c r="E28">
-        <v>567.5840454101562</v>
+        <v>1.905599117279053</v>
       </c>
       <c r="F28">
-        <v>568.4980293802209</v>
+        <v>2.529334261037852</v>
       </c>
       <c r="G28">
-        <v>487.1534560444658</v>
+        <v>1.766165054446093</v>
       </c>
       <c r="H28">
-        <v>275900103</v>
+        <v>86406484</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>216145798</v>
@@ -3274,22 +3211,22 @@
         <v>44742</v>
       </c>
       <c r="D29">
-        <v>990.9535599144536</v>
+        <v>1.636026510674624</v>
       </c>
       <c r="E29">
-        <v>932.830322265625</v>
+        <v>1.199133038520813</v>
       </c>
       <c r="F29">
-        <v>1065.275076908038</v>
+        <v>1.736419084333834</v>
       </c>
       <c r="G29">
-        <v>932.830322265625</v>
+        <v>1.161950653082105</v>
       </c>
       <c r="H29">
-        <v>1333460157</v>
+        <v>86406484</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>153174188</v>
@@ -3381,22 +3318,22 @@
         <v>44834</v>
       </c>
       <c r="D30">
-        <v>3829.951036061672</v>
+        <v>0.9667429916273974</v>
       </c>
       <c r="E30">
-        <v>3718.19677734375</v>
+        <v>0.7501553893089294</v>
       </c>
       <c r="F30">
-        <v>4026.941593801738</v>
+        <v>1.003925491098477</v>
       </c>
       <c r="G30">
-        <v>3570.453859038701</v>
+        <v>0.725057243720548</v>
       </c>
       <c r="H30">
-        <v>933160187</v>
+        <v>86406484</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>90947820</v>
@@ -3488,22 +3425,22 @@
         <v>44926</v>
       </c>
       <c r="D31">
-        <v>17.67499923706055</v>
+        <v>1.264202290810901</v>
       </c>
       <c r="E31">
-        <v>19.1200008392334</v>
+        <v>3.05825400352478</v>
       </c>
       <c r="F31">
-        <v>19.76000022888184</v>
+        <v>3.17909697466685</v>
       </c>
       <c r="G31">
-        <v>17.08499908447266</v>
+        <v>1.236315502460691</v>
       </c>
       <c r="H31">
-        <v>795535712</v>
+        <v>86406484</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>122895525</v>
@@ -3595,22 +3532,22 @@
         <v>45016</v>
       </c>
       <c r="D32">
-        <v>4646.163088703966</v>
+        <v>1.952077122086589</v>
       </c>
       <c r="E32">
-        <v>4397.0390625</v>
+        <v>1.970668315887451</v>
       </c>
       <c r="F32">
-        <v>4647.12125803552</v>
+        <v>2.258832263049833</v>
       </c>
       <c r="G32">
-        <v>4224.568582820331</v>
+        <v>1.812643168580125</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>86406484</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>190860180</v>
@@ -3702,22 +3639,22 @@
         <v>45107</v>
       </c>
       <c r="D33">
-        <v>299.8867087280755</v>
+        <v>2.15658045336517</v>
       </c>
       <c r="E33">
-        <v>279.6763610839844</v>
+        <v>2.491222381591797</v>
       </c>
       <c r="F33">
-        <v>311.3327623979251</v>
+        <v>2.584178349641132</v>
       </c>
       <c r="G33">
-        <v>274.7053735580706</v>
+        <v>1.979964114071432</v>
       </c>
       <c r="H33">
-        <v>193969420</v>
+        <v>86406484</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>202227092</v>
@@ -3809,22 +3746,22 @@
         <v>45199</v>
       </c>
       <c r="D34">
-        <v>1366.269412157012</v>
+        <v>2.277423466652015</v>
       </c>
       <c r="E34">
-        <v>1400.426147460938</v>
+        <v>2.054328918457031</v>
       </c>
       <c r="F34">
-        <v>1722.475366040805</v>
+        <v>2.31460585441376</v>
       </c>
       <c r="G34">
-        <v>1356.510344927319</v>
+        <v>2.00785093375485</v>
       </c>
       <c r="H34">
-        <v>134011000</v>
+        <v>86406484</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>214968949</v>
@@ -3916,22 +3853,22 @@
         <v>45291</v>
       </c>
       <c r="D35">
-        <v>124.5980016318655</v>
+        <v>2.900228855288518</v>
       </c>
       <c r="E35">
-        <v>132.1493988037109</v>
+        <v>3.997110605239868</v>
       </c>
       <c r="F35">
-        <v>136.1187273141222</v>
+        <v>4.64780282318635</v>
       </c>
       <c r="G35">
-        <v>122.5649354352075</v>
+        <v>2.807272887474594</v>
       </c>
       <c r="H35">
-        <v>229140423</v>
+        <v>86406484</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>275911979</v>
@@ -4023,22 +3960,22 @@
         <v>45382</v>
       </c>
       <c r="D36">
-        <v>4156.728619089413</v>
+        <v>4.294569656883831</v>
       </c>
       <c r="E36">
-        <v>4553.76318359375</v>
+        <v>4.684985160827637</v>
       </c>
       <c r="F36">
-        <v>5096.40944657156</v>
+        <v>5.084696039830145</v>
       </c>
       <c r="G36">
-        <v>3750.957352676668</v>
+        <v>4.229500701725873</v>
       </c>
       <c r="H36">
-        <v>175134528</v>
+        <v>86406484</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>395629690</v>
@@ -4130,22 +4067,22 @@
         <v>45473</v>
       </c>
       <c r="D37">
-        <v>2890.935410112718</v>
+        <v>4.275978260734711</v>
       </c>
       <c r="E37">
-        <v>2691.009033203125</v>
+        <v>4.415412425994873</v>
       </c>
       <c r="F37">
-        <v>3014.889763796666</v>
+        <v>4.63850673581194</v>
       </c>
       <c r="G37">
-        <v>2519.072349060875</v>
+        <v>4.062179325535525</v>
       </c>
       <c r="H37">
-        <v>104878138</v>
+        <v>86406484</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>394749733</v>
@@ -4237,22 +4174,22 @@
         <v>45565</v>
       </c>
       <c r="D38">
-        <v>31.23959479848472</v>
+        <v>5.626877779533838</v>
       </c>
       <c r="E38">
-        <v>28.76222801208496</v>
+        <v>5.452850341796875</v>
       </c>
       <c r="F38">
-        <v>31.50219696309808</v>
+        <v>8.894720441853881</v>
       </c>
       <c r="G38">
-        <v>28.63340577082776</v>
+        <v>5.143469049845812</v>
       </c>
       <c r="H38">
-        <v>1299391231</v>
+        <v>86406484</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>491706249</v>
@@ -4344,22 +4281,22 @@
         <v>45657</v>
       </c>
       <c r="D39">
-        <v>2476.994723535176</v>
+        <v>4.544042091910759</v>
       </c>
       <c r="E39">
-        <v>2384.00341796875</v>
+        <v>5.491523265838623</v>
       </c>
       <c r="F39">
-        <v>2758.415779854624</v>
+        <v>5.684887043567184</v>
       </c>
       <c r="G39">
-        <v>2325.761495008725</v>
+        <v>4.418356166553883</v>
       </c>
       <c r="H39">
-        <v>175134528</v>
+        <v>86406484</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>420044746</v>
@@ -4451,22 +4388,22 @@
         <v>45747</v>
       </c>
       <c r="D40">
-        <v>3590.70430246099</v>
+        <v>6.700045310009397</v>
       </c>
       <c r="E40">
-        <v>3714.694091796875</v>
+        <v>6.322986602783203</v>
       </c>
       <c r="F40">
-        <v>3714.694091796875</v>
+        <v>7.193122471086708</v>
       </c>
       <c r="G40">
-        <v>3048.748932944461</v>
+        <v>4.544042201897327</v>
       </c>
       <c r="H40">
-        <v>913159452</v>
+        <v>86406484</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>594169335</v>
@@ -4558,22 +4495,22 @@
         <v>45838</v>
       </c>
       <c r="D41">
-        <v>2937</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="E41">
-        <v>3025</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F41">
-        <v>3125</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="G41">
-        <v>2890</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="H41">
-        <v>52985470</v>
+        <v>86406484</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>507168807</v>
